--- a/Systemic antibody response to vaccines.xlsx
+++ b/Systemic antibody response to vaccines.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Master thesis  Quentin\Data\Graphs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\Inactivated-vaccines-tilapia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB70BB7-9AD5-40D5-9315-48D218228512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B013511-1465-4A18-B7D2-BD021A51F3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10290" yWindow="3030" windowWidth="28800" windowHeight="15435" xr2:uid="{1C81741C-54A8-4634-8926-2D8BF735A586}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{1C81741C-54A8-4634-8926-2D8BF735A586}"/>
   </bookViews>
   <sheets>
     <sheet name="Monovalent" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="10">
   <si>
     <t>Day_post_vaccination</t>
   </si>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B86880-0E3E-4283-B30C-54437A2D49C8}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,21 +614,21 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14">
         <v>0.5</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
@@ -637,12 +637,12 @@
         <v>0.5</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
@@ -651,12 +651,12 @@
         <v>0.5</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
@@ -665,12 +665,12 @@
         <v>0.5</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
@@ -679,12 +679,12 @@
         <v>0.5</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
@@ -693,12 +693,12 @@
         <v>0.5</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
@@ -707,12 +707,12 @@
         <v>0.5</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
@@ -721,12 +721,12 @@
         <v>0.5</v>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
@@ -735,12 +735,12 @@
         <v>0.5</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
@@ -749,12 +749,12 @@
         <v>0.5</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
@@ -763,12 +763,12 @@
         <v>0.5</v>
       </c>
       <c r="D24">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
@@ -777,40 +777,40 @@
         <v>0.5</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>0.5</v>
       </c>
       <c r="D26">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C27">
         <v>0.5</v>
       </c>
       <c r="D27">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
@@ -819,12 +819,12 @@
         <v>0.5</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>
@@ -833,12 +833,12 @@
         <v>0.5</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
@@ -847,12 +847,12 @@
         <v>0.5</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
@@ -861,12 +861,12 @@
         <v>0.5</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
@@ -875,12 +875,12 @@
         <v>0.5</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
         <v>4</v>
@@ -889,12 +889,12 @@
         <v>0.5</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
         <v>4</v>
@@ -903,12 +903,12 @@
         <v>0.5</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B35" t="s">
         <v>4</v>
@@ -917,12 +917,12 @@
         <v>0.5</v>
       </c>
       <c r="D35">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
         <v>4</v>
@@ -931,12 +931,12 @@
         <v>0.5</v>
       </c>
       <c r="D36">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
         <v>4</v>
@@ -945,54 +945,54 @@
         <v>0.5</v>
       </c>
       <c r="D37">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C38">
         <v>0.5</v>
       </c>
       <c r="D38">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C39">
         <v>0.5</v>
       </c>
       <c r="D39">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C40">
         <v>0.5</v>
       </c>
       <c r="D40">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
@@ -1001,12 +1001,12 @@
         <v>0.5</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
@@ -1015,12 +1015,12 @@
         <v>0.5</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
@@ -1029,12 +1029,12 @@
         <v>0.5</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
@@ -1043,12 +1043,12 @@
         <v>0.5</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
@@ -1057,12 +1057,12 @@
         <v>0.5</v>
       </c>
       <c r="D45">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
@@ -1071,12 +1071,12 @@
         <v>0.5</v>
       </c>
       <c r="D46">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
@@ -1085,12 +1085,12 @@
         <v>0.5</v>
       </c>
       <c r="D47">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
@@ -1099,12 +1099,12 @@
         <v>0.5</v>
       </c>
       <c r="D48">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
@@ -1113,63 +1113,7 @@
         <v>0.5</v>
       </c>
       <c r="D49">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>63</v>
-      </c>
-      <c r="B50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50">
-        <v>0.5</v>
-      </c>
-      <c r="D50">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>70</v>
-      </c>
-      <c r="B51" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51">
-        <v>0.5</v>
-      </c>
-      <c r="D51">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>77</v>
-      </c>
-      <c r="B52" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52">
-        <v>0.5</v>
-      </c>
-      <c r="D52">
         <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>84</v>
-      </c>
-      <c r="B53" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53">
-        <v>0.5</v>
-      </c>
-      <c r="D53">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1179,10 +1123,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E340F3C-DC8B-44C6-8A7C-D12EBADB14D4}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,7 +1173,7 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>0.5</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1243,7 +1187,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>0.5</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1257,7 +1201,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -1271,7 +1215,7 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -1285,7 +1229,7 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -1299,7 +1243,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -1313,7 +1257,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <v>7</v>
@@ -1327,7 +1271,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.5</v>
+        <v>8</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -1341,7 +1285,7 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>0.5</v>
+        <v>9</v>
       </c>
       <c r="D11">
         <v>9</v>
@@ -1355,7 +1299,7 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -1369,7 +1313,7 @@
         <v>8</v>
       </c>
       <c r="C13">
-        <v>0.5</v>
+        <v>11</v>
       </c>
       <c r="D13">
         <v>11</v>
@@ -1377,35 +1321,35 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14">
         <v>0.5</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="C15">
-        <v>0.5</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
@@ -1414,12 +1358,12 @@
         <v>0.5</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
@@ -1428,12 +1372,12 @@
         <v>0.5</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
@@ -1442,12 +1386,12 @@
         <v>0.5</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
@@ -1456,12 +1400,12 @@
         <v>0.5</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
@@ -1470,12 +1414,12 @@
         <v>0.5</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
@@ -1484,12 +1428,12 @@
         <v>0.5</v>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
@@ -1498,12 +1442,12 @@
         <v>0.5</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
@@ -1512,12 +1456,12 @@
         <v>0.5</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
@@ -1526,12 +1470,12 @@
         <v>0.5</v>
       </c>
       <c r="D24">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
@@ -1540,40 +1484,40 @@
         <v>0.5</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C26">
         <v>0.5</v>
       </c>
       <c r="D26">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C27">
-        <v>0.5</v>
+        <v>30</v>
       </c>
       <c r="D27">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
@@ -1582,12 +1526,12 @@
         <v>0.5</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
@@ -1596,12 +1540,12 @@
         <v>0.5</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
@@ -1610,12 +1554,12 @@
         <v>0.5</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
@@ -1624,12 +1568,12 @@
         <v>0.5</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
@@ -1638,12 +1582,12 @@
         <v>0.5</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
@@ -1652,12 +1596,12 @@
         <v>0.5</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
@@ -1666,12 +1610,12 @@
         <v>0.5</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
@@ -1680,12 +1624,12 @@
         <v>0.5</v>
       </c>
       <c r="D35">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
@@ -1694,12 +1638,12 @@
         <v>0.5</v>
       </c>
       <c r="D36">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
@@ -1708,54 +1652,54 @@
         <v>0.5</v>
       </c>
       <c r="D37">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C38">
         <v>0.5</v>
       </c>
       <c r="D38">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C39">
         <v>0.5</v>
       </c>
       <c r="D39">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C40">
         <v>0.5</v>
       </c>
       <c r="D40">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
@@ -1764,12 +1708,12 @@
         <v>0.5</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
@@ -1778,12 +1722,12 @@
         <v>0.5</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
@@ -1792,12 +1736,12 @@
         <v>0.5</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
@@ -1806,12 +1750,12 @@
         <v>0.5</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
@@ -1820,12 +1764,12 @@
         <v>0.5</v>
       </c>
       <c r="D45">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
@@ -1834,12 +1778,12 @@
         <v>0.5</v>
       </c>
       <c r="D46">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
@@ -1848,12 +1792,12 @@
         <v>0.5</v>
       </c>
       <c r="D47">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
@@ -1862,12 +1806,12 @@
         <v>0.5</v>
       </c>
       <c r="D48">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
@@ -1876,63 +1820,7 @@
         <v>0.5</v>
       </c>
       <c r="D49">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>63</v>
-      </c>
-      <c r="B50" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50">
-        <v>0.5</v>
-      </c>
-      <c r="D50">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>70</v>
-      </c>
-      <c r="B51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51">
-        <v>0.5</v>
-      </c>
-      <c r="D51">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>77</v>
-      </c>
-      <c r="B52" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52">
-        <v>0.5</v>
-      </c>
-      <c r="D52">
         <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>84</v>
-      </c>
-      <c r="B53" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53">
-        <v>0.5</v>
-      </c>
-      <c r="D53">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
